--- a/excel_files/jurisdiction_info.xlsx
+++ b/excel_files/jurisdiction_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>jurisdiction</t>
   </si>
@@ -106,9 +106,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>GG</t>
-  </si>
-  <si>
     <t>GR</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>IQ</t>
-  </si>
-  <si>
     <t>IS</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>JE</t>
-  </si>
-  <si>
-    <t>JO</t>
   </si>
   <si>
     <t>JP</t>
@@ -639,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,21 +660,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>45474</v>
@@ -691,21 +682,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <v>45474</v>
@@ -713,21 +704,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>45474</v>
@@ -735,21 +726,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>45474</v>
@@ -757,18 +748,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -779,21 +770,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>45474</v>
@@ -801,21 +792,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>45474</v>
@@ -823,21 +814,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="C17" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>45474</v>
@@ -845,21 +836,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>45474</v>
@@ -867,21 +858,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>45474</v>
@@ -889,21 +880,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2">
         <v>45474</v>
@@ -911,21 +902,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>45474</v>
@@ -933,21 +924,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>591</v>
       </c>
       <c r="C28" s="2">
         <v>45474</v>
@@ -955,21 +946,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2">
         <v>45474</v>
@@ -977,21 +968,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <v>45474</v>
@@ -999,21 +990,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <v>45474</v>
@@ -1021,21 +1012,21 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
         <v>45474</v>
@@ -1043,21 +1034,21 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2">
         <v>45474</v>
@@ -1065,21 +1056,21 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2">
         <v>45474</v>
@@ -1087,21 +1078,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2">
         <v>45474</v>
@@ -1109,21 +1100,21 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
         <v>45474</v>
@@ -1131,21 +1122,21 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C45" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2">
         <v>45474</v>
@@ -1153,21 +1144,21 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
         <v>45474</v>
@@ -1175,21 +1166,21 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2">
         <v>45474</v>
@@ -1197,21 +1188,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2">
         <v>45474</v>
@@ -1219,21 +1210,21 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>591</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
         <v>45474</v>
@@ -1241,32 +1232,32 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>594</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2">
         <v>45474</v>
@@ -1274,21 +1265,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
         <v>45474</v>
@@ -1296,21 +1287,21 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
         <v>45474</v>
@@ -1318,21 +1309,21 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
         <v>45474</v>
@@ -1340,21 +1331,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
         <v>45474</v>
@@ -1362,21 +1353,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2">
         <v>45474</v>
@@ -1384,21 +1375,21 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C69" s="2">
         <v>45474</v>
@@ -1406,18 +1397,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>7</v>
@@ -1428,29 +1419,29 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -1461,21 +1452,21 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2">
         <v>45474</v>
@@ -1483,21 +1474,21 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C77" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2">
         <v>45474</v>
@@ -1505,32 +1496,32 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>1716</v>
       </c>
       <c r="C80" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2">
         <v>45474</v>
@@ -1538,959 +1529,24 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C82" s="2">
-        <v>45499</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C83" s="2">
         <v>45474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85">
-        <v>27</v>
-      </c>
-      <c r="C85" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86">
-        <v>27</v>
-      </c>
-      <c r="C86" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87">
-        <v>12</v>
-      </c>
-      <c r="C87" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88">
-        <v>12</v>
-      </c>
-      <c r="C88" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-      <c r="C90" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91">
-        <v>30</v>
-      </c>
-      <c r="C91" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92">
-        <v>31</v>
-      </c>
-      <c r="C92" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99">
-        <v>37</v>
-      </c>
-      <c r="C99" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100">
-        <v>38</v>
-      </c>
-      <c r="C100" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105">
-        <v>6</v>
-      </c>
-      <c r="C105" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106">
-        <v>6</v>
-      </c>
-      <c r="C106" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109">
-        <v>9</v>
-      </c>
-      <c r="C109" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>58</v>
-      </c>
-      <c r="B110">
-        <v>9</v>
-      </c>
-      <c r="C110" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115">
-        <v>8</v>
-      </c>
-      <c r="C115" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116">
-        <v>8</v>
-      </c>
-      <c r="C116" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117">
-        <v>73</v>
-      </c>
-      <c r="C117" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118">
-        <v>73</v>
-      </c>
-      <c r="C118" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119">
-        <v>13</v>
-      </c>
-      <c r="C119" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>63</v>
-      </c>
-      <c r="B120">
-        <v>13</v>
-      </c>
-      <c r="C120" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121">
-        <v>5</v>
-      </c>
-      <c r="C121" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>64</v>
-      </c>
-      <c r="B122">
-        <v>5</v>
-      </c>
-      <c r="C122" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-      <c r="C124" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>66</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127">
-        <v>11</v>
-      </c>
-      <c r="C127" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>67</v>
-      </c>
-      <c r="B128">
-        <v>12</v>
-      </c>
-      <c r="C128" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129">
-        <v>14</v>
-      </c>
-      <c r="C129" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>68</v>
-      </c>
-      <c r="B130">
-        <v>14</v>
-      </c>
-      <c r="C130" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133">
-        <v>32</v>
-      </c>
-      <c r="C133" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>70</v>
-      </c>
-      <c r="B134">
-        <v>32</v>
-      </c>
-      <c r="C134" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135">
-        <v>5</v>
-      </c>
-      <c r="C135" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>71</v>
-      </c>
-      <c r="B136">
-        <v>6</v>
-      </c>
-      <c r="C136" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138">
-        <v>2</v>
-      </c>
-      <c r="C138" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>73</v>
-      </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="C140" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143">
-        <v>7</v>
-      </c>
-      <c r="C143" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144">
-        <v>7</v>
-      </c>
-      <c r="C144" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145">
-        <v>40</v>
-      </c>
-      <c r="C145" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146">
-        <v>40</v>
-      </c>
-      <c r="C146" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147">
-        <v>129</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>77</v>
-      </c>
-      <c r="B148">
-        <v>131</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149">
-        <v>4</v>
-      </c>
-      <c r="C149" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>78</v>
-      </c>
-      <c r="B150">
-        <v>4</v>
-      </c>
-      <c r="C150" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151">
-        <v>3</v>
-      </c>
-      <c r="C151" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>79</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="C152" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153">
-        <v>8</v>
-      </c>
-      <c r="C153" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>80</v>
-      </c>
-      <c r="B154">
-        <v>9</v>
-      </c>
-      <c r="C154" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155">
-        <v>7</v>
-      </c>
-      <c r="C155" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>81</v>
-      </c>
-      <c r="B156">
-        <v>7</v>
-      </c>
-      <c r="C156" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157">
-        <v>54</v>
-      </c>
-      <c r="C157" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>82</v>
-      </c>
-      <c r="B158">
-        <v>54</v>
-      </c>
-      <c r="C158" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>83</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161">
-        <v>1716</v>
-      </c>
-      <c r="C161" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>84</v>
-      </c>
-      <c r="B162">
-        <v>1721</v>
-      </c>
-      <c r="C162" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163">
-        <v>2</v>
-      </c>
-      <c r="C163" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
-      <c r="C164" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165">
-        <v>6</v>
-      </c>
-      <c r="C165" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>86</v>
-      </c>
-      <c r="B166">
-        <v>6</v>
-      </c>
-      <c r="C166" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167">
-        <v>8</v>
-      </c>
-      <c r="C167" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>87</v>
-      </c>
-      <c r="B168">
-        <v>8</v>
-      </c>
-      <c r="C168" s="2">
-        <v>45499</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/jurisdiction_info.xlsx
+++ b/excel_files/jurisdiction_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>jurisdiction</t>
   </si>
@@ -22,220 +22,232 @@
     <t>unique_customer_count</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Holy See (Vatican City State)</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Åland Islands</t>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -620,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -628,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -636,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -644,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -652,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -668,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -676,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -684,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -692,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -708,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -748,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -756,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -796,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -804,7 +816,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -812,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -820,7 +832,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -836,7 +848,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -844,7 +856,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -852,7 +864,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -860,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -868,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -876,7 +888,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -892,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -900,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -916,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -932,7 +944,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -940,7 +952,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -948,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -964,7 +976,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -988,7 +1000,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -996,7 +1008,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1004,7 +1016,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1028,7 +1040,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1036,7 +1048,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1044,7 +1056,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1052,7 +1064,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1060,7 +1072,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1084,7 +1096,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1092,7 +1104,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1100,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1116,7 +1128,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1124,7 +1136,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1132,7 +1144,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1140,7 +1152,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1156,7 +1168,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1164,7 +1176,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1172,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1180,7 +1192,39 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
